--- a/validate.xlsx
+++ b/validate.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="408" windowWidth="23040" windowHeight="9504"/>
+    <workbookView xWindow="0" yWindow="1224" windowWidth="23040" windowHeight="9504"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
   <si>
     <t>similar artist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,12 +79,16 @@
     <t>samples</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>genre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +112,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -319,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +379,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,52 +667,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M37"/>
+  <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="15.77734375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F2" s="9"/>
       <c r="G2" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="11"/>
@@ -711,20 +720,21 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="11"/>
@@ -733,8 +743,9 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -745,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="11"/>
@@ -754,10 +765,11 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="11"/>
@@ -766,10 +778,11 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="11"/>
@@ -778,10 +791,11 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="14"/>
@@ -790,134 +804,1392 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="9"/>
+      <c r="G10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="20">
+        <v>300</v>
+      </c>
+      <c r="H11" s="11">
+        <v>89</v>
+      </c>
+      <c r="I11" s="11">
+        <v>71</v>
+      </c>
+      <c r="J11" s="11">
+        <v>9</v>
+      </c>
+      <c r="K11" s="11">
+        <v>29.666666666666998</v>
+      </c>
+      <c r="L11" s="11">
+        <v>23.666666666666998</v>
+      </c>
+      <c r="M11" s="12">
+        <v>3</v>
+      </c>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="20">
+        <v>300</v>
+      </c>
+      <c r="H12" s="11">
+        <v>100</v>
+      </c>
+      <c r="I12" s="11">
+        <v>86</v>
+      </c>
+      <c r="J12" s="11">
+        <v>10</v>
+      </c>
+      <c r="K12" s="11">
+        <v>33.333333333333002</v>
+      </c>
+      <c r="L12" s="11">
+        <v>28.666666666666998</v>
+      </c>
+      <c r="M12" s="12">
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="20">
+        <v>300</v>
+      </c>
+      <c r="H13" s="11">
+        <v>77</v>
+      </c>
+      <c r="I13" s="11">
+        <v>60</v>
+      </c>
+      <c r="J13" s="11">
+        <v>14</v>
+      </c>
+      <c r="K13" s="11">
+        <v>25.666666666666998</v>
+      </c>
+      <c r="L13" s="11">
+        <v>20</v>
+      </c>
+      <c r="M13" s="12">
+        <v>4.6666666666666998</v>
+      </c>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="20">
+        <v>300</v>
+      </c>
+      <c r="H14" s="11">
+        <v>94</v>
+      </c>
+      <c r="I14" s="11">
+        <v>66</v>
+      </c>
+      <c r="J14" s="11">
+        <v>12</v>
+      </c>
+      <c r="K14" s="11">
+        <v>31.333333333333002</v>
+      </c>
+      <c r="L14" s="11">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12">
+        <v>4</v>
+      </c>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="20">
+        <v>300</v>
+      </c>
+      <c r="H15" s="11">
+        <v>99</v>
+      </c>
+      <c r="I15" s="11">
+        <v>81</v>
+      </c>
+      <c r="J15" s="11">
+        <v>11</v>
+      </c>
+      <c r="K15" s="11">
+        <v>33</v>
+      </c>
+      <c r="L15" s="11">
+        <v>27</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3.6666666666666998</v>
+      </c>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="17">
+        <f>SUM(G11:G15)/5</f>
+        <v>300</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(H11:H15)/5</f>
+        <v>91.8</v>
+      </c>
+      <c r="I16" s="17">
+        <f>SUM(I11:I15)/5</f>
+        <v>72.8</v>
+      </c>
+      <c r="J16" s="17">
+        <f>SUM(J11:J15)/5</f>
+        <v>11.2</v>
+      </c>
+      <c r="K16" s="14">
+        <f>100*H16/G16</f>
+        <v>30.6</v>
+      </c>
+      <c r="L16" s="14">
+        <f>100*I16/G16</f>
+        <v>24.266666666666666</v>
+      </c>
+      <c r="M16" s="14">
+        <f>100*J16/G16</f>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="9"/>
+      <c r="G18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="9"/>
+      <c r="G26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="20">
+        <v>300</v>
+      </c>
+      <c r="H27" s="11">
+        <v>67</v>
+      </c>
+      <c r="I27" s="11">
+        <v>59</v>
+      </c>
+      <c r="J27" s="11">
+        <v>9</v>
+      </c>
+      <c r="K27" s="11">
+        <v>22.333333333333002</v>
+      </c>
+      <c r="L27" s="11">
+        <v>19.666666666666998</v>
+      </c>
+      <c r="M27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="20">
+        <v>300</v>
+      </c>
+      <c r="H28" s="11">
+        <v>85</v>
+      </c>
+      <c r="I28" s="11">
+        <v>79</v>
+      </c>
+      <c r="J28" s="11">
+        <v>20</v>
+      </c>
+      <c r="K28" s="11">
+        <v>28.333333333333002</v>
+      </c>
+      <c r="L28" s="11">
+        <v>26.333333333333002</v>
+      </c>
+      <c r="M28" s="12">
+        <v>6.6666666666666998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="20">
+        <v>300</v>
+      </c>
+      <c r="H29" s="11">
+        <v>78</v>
+      </c>
+      <c r="I29" s="11">
+        <v>62</v>
+      </c>
+      <c r="J29" s="11">
+        <v>15</v>
+      </c>
+      <c r="K29" s="11">
+        <v>26</v>
+      </c>
+      <c r="L29" s="11">
+        <v>20.666666666666998</v>
+      </c>
+      <c r="M29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="20">
+        <v>300</v>
+      </c>
+      <c r="H30" s="11">
+        <v>75</v>
+      </c>
+      <c r="I30" s="11">
+        <v>64</v>
+      </c>
+      <c r="J30" s="11">
+        <v>11</v>
+      </c>
+      <c r="K30" s="11">
+        <v>25</v>
+      </c>
+      <c r="L30" s="11">
+        <v>21.333333333333002</v>
+      </c>
+      <c r="M30" s="12">
+        <v>3.6666666666666998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="20">
+        <v>300</v>
+      </c>
+      <c r="H31" s="11">
+        <v>105</v>
+      </c>
+      <c r="I31" s="11">
+        <v>92</v>
+      </c>
+      <c r="J31" s="11">
+        <v>14</v>
+      </c>
+      <c r="K31" s="11">
+        <v>35</v>
+      </c>
+      <c r="L31" s="11">
+        <v>30.666666666666998</v>
+      </c>
+      <c r="M31" s="12">
+        <v>4.6666666666666998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="17">
+        <f>SUM(G27:G31)/5</f>
+        <v>300</v>
+      </c>
+      <c r="H32" s="17">
+        <f>SUM(H27:H31)/5</f>
+        <v>82</v>
+      </c>
+      <c r="I32" s="17">
+        <f>SUM(I27:I31)/5</f>
+        <v>71.2</v>
+      </c>
+      <c r="J32" s="17">
+        <f>SUM(J27:J31)/5</f>
+        <v>13.8</v>
+      </c>
+      <c r="K32" s="14">
+        <f>100*H32/G32</f>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="L32" s="14">
+        <f>100*I32/G32</f>
+        <v>23.733333333333334</v>
+      </c>
+      <c r="M32" s="14">
+        <f>100*J32/G32</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F34" s="9"/>
+      <c r="G34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="20">
+        <v>300</v>
+      </c>
+      <c r="H35" s="11">
+        <v>55</v>
+      </c>
+      <c r="I35" s="11">
+        <v>52</v>
+      </c>
+      <c r="J35" s="11">
+        <v>35</v>
+      </c>
+      <c r="K35" s="11">
+        <v>18.333333333333002</v>
+      </c>
+      <c r="L35" s="11">
+        <v>17.333333333333002</v>
+      </c>
+      <c r="M35" s="12">
+        <v>11.666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="20">
+        <v>297</v>
+      </c>
+      <c r="H36" s="11">
+        <v>46</v>
+      </c>
+      <c r="I36" s="11">
+        <v>37</v>
+      </c>
+      <c r="J36" s="11">
+        <v>19</v>
+      </c>
+      <c r="K36" s="11">
+        <v>15.488215488214999</v>
+      </c>
+      <c r="L36" s="11">
+        <v>12.457912457912</v>
+      </c>
+      <c r="M36" s="12">
+        <v>6.3973063973063997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="20">
+        <v>300</v>
+      </c>
+      <c r="H37" s="11">
+        <v>42</v>
+      </c>
+      <c r="I37" s="11">
+        <v>33</v>
+      </c>
+      <c r="J37" s="11">
+        <v>25</v>
+      </c>
+      <c r="K37" s="11">
+        <v>14</v>
+      </c>
+      <c r="L37" s="11">
+        <v>11</v>
+      </c>
+      <c r="M37" s="12">
+        <v>8.3333333333333002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="20">
+        <v>300</v>
+      </c>
+      <c r="H38" s="11">
+        <v>47</v>
+      </c>
+      <c r="I38" s="11">
+        <v>29</v>
+      </c>
+      <c r="J38" s="11">
+        <v>25</v>
+      </c>
+      <c r="K38" s="11">
+        <v>15.666666666667</v>
+      </c>
+      <c r="L38" s="11">
+        <v>9.6666666666666998</v>
+      </c>
+      <c r="M38" s="12">
+        <v>8.3333333333333002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="20">
+        <v>300</v>
+      </c>
+      <c r="H39" s="11">
+        <v>39</v>
+      </c>
+      <c r="I39" s="11">
+        <v>26</v>
+      </c>
+      <c r="J39" s="11">
+        <v>19</v>
+      </c>
+      <c r="K39" s="11">
+        <v>13</v>
+      </c>
+      <c r="L39" s="11">
+        <v>8.6666666666666998</v>
+      </c>
+      <c r="M39" s="12">
+        <v>6.3333333333333002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="17">
+        <f>SUM(G35:G39)/5</f>
+        <v>299.39999999999998</v>
+      </c>
+      <c r="H40" s="17">
+        <f>SUM(H35:H39)/5</f>
+        <v>45.8</v>
+      </c>
+      <c r="I40" s="17">
+        <f>SUM(I35:I39)/5</f>
+        <v>35.4</v>
+      </c>
+      <c r="J40" s="17">
+        <f>SUM(J35:J39)/5</f>
+        <v>24.6</v>
+      </c>
+      <c r="K40" s="14">
+        <f>100*H40/G40</f>
+        <v>15.297261189044757</v>
+      </c>
+      <c r="L40" s="14">
+        <f>100*I40/G40</f>
+        <v>11.823647294589179</v>
+      </c>
+      <c r="M40" s="14">
+        <f>100*J40/G40</f>
+        <v>8.2164328657314627</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F42" s="9"/>
+      <c r="G42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="20">
+        <v>300</v>
+      </c>
+      <c r="H43" s="11">
+        <v>33</v>
+      </c>
+      <c r="I43" s="11">
+        <v>24</v>
+      </c>
+      <c r="J43" s="11">
+        <v>22</v>
+      </c>
+      <c r="K43" s="11">
+        <v>11</v>
+      </c>
+      <c r="L43" s="11">
+        <v>8</v>
+      </c>
+      <c r="M43" s="12">
+        <v>7.3333333333333002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="20">
+        <v>273</v>
+      </c>
+      <c r="H44" s="11">
+        <v>20</v>
+      </c>
+      <c r="I44" s="11">
+        <v>15</v>
+      </c>
+      <c r="J44" s="11">
+        <v>9</v>
+      </c>
+      <c r="K44" s="11">
+        <v>7.3260073260073</v>
+      </c>
+      <c r="L44" s="11">
+        <v>5.4945054945054999</v>
+      </c>
+      <c r="M44" s="12">
+        <v>3.2967032967033001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="20">
+        <v>300</v>
+      </c>
+      <c r="H45" s="11">
+        <v>35</v>
+      </c>
+      <c r="I45" s="11">
+        <v>25</v>
+      </c>
+      <c r="J45" s="11">
+        <v>16</v>
+      </c>
+      <c r="K45" s="11">
+        <v>11.666666666667</v>
+      </c>
+      <c r="L45" s="11">
+        <v>8.3333333333333002</v>
+      </c>
+      <c r="M45" s="12">
+        <v>5.3333333333333002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="20">
+        <v>300</v>
+      </c>
+      <c r="H46" s="11">
+        <v>32</v>
+      </c>
+      <c r="I46" s="11">
+        <v>25</v>
+      </c>
+      <c r="J46" s="11">
+        <v>19</v>
+      </c>
+      <c r="K46" s="11">
+        <v>10.666666666667</v>
+      </c>
+      <c r="L46" s="11">
+        <v>8.3333333333333002</v>
+      </c>
+      <c r="M46" s="12">
+        <v>6.3333333333333002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="20">
+        <v>300</v>
+      </c>
+      <c r="H47" s="11">
+        <v>30</v>
+      </c>
+      <c r="I47" s="11">
+        <v>21</v>
+      </c>
+      <c r="J47" s="11">
+        <v>15</v>
+      </c>
+      <c r="K47" s="11">
+        <v>10</v>
+      </c>
+      <c r="L47" s="11">
+        <v>7</v>
+      </c>
+      <c r="M47" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="17">
+        <f>SUM(G43:G47)/5</f>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="H48" s="17">
+        <f>SUM(H43:H47)/5</f>
+        <v>30</v>
+      </c>
+      <c r="I48" s="17">
+        <f>SUM(I43:I47)/5</f>
+        <v>22</v>
+      </c>
+      <c r="J48" s="17">
+        <f>SUM(J43:J47)/5</f>
+        <v>16.2</v>
+      </c>
+      <c r="K48" s="14">
+        <f>100*H48/G48</f>
+        <v>10.183299389002036</v>
+      </c>
+      <c r="L48" s="14">
+        <f>100*I48/G48</f>
+        <v>7.4677528852681601</v>
+      </c>
+      <c r="M48" s="14">
+        <f>100*J48/G48</f>
+        <v>5.4989816700610996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F50" s="9"/>
+      <c r="G50" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="20">
+        <v>283</v>
+      </c>
+      <c r="H51" s="11">
+        <v>52</v>
+      </c>
+      <c r="I51" s="11">
+        <v>44</v>
+      </c>
+      <c r="J51" s="11">
+        <v>28</v>
+      </c>
+      <c r="K51" s="11">
+        <v>18.374558303887</v>
+      </c>
+      <c r="L51" s="11">
+        <v>15.547703180212</v>
+      </c>
+      <c r="M51" s="12">
+        <v>9.8939929328622007</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="20">
+        <v>300</v>
+      </c>
+      <c r="H52" s="11">
+        <v>43</v>
+      </c>
+      <c r="I52" s="11">
+        <v>37</v>
+      </c>
+      <c r="J52" s="11">
+        <v>27</v>
+      </c>
+      <c r="K52" s="11">
+        <v>14.333333333333</v>
+      </c>
+      <c r="L52" s="11">
+        <v>12.333333333333</v>
+      </c>
+      <c r="M52" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="20">
+        <v>300</v>
+      </c>
+      <c r="H53" s="11">
+        <v>62</v>
+      </c>
+      <c r="I53" s="11">
+        <v>50</v>
+      </c>
+      <c r="J53" s="11">
+        <v>37</v>
+      </c>
+      <c r="K53" s="11">
+        <v>20.666666666666998</v>
+      </c>
+      <c r="L53" s="11">
+        <v>16.666666666666998</v>
+      </c>
+      <c r="M53" s="12">
+        <v>12.333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="20">
+        <v>300</v>
+      </c>
+      <c r="H54" s="11">
+        <v>49</v>
+      </c>
+      <c r="I54" s="11">
+        <v>41</v>
+      </c>
+      <c r="J54" s="11">
+        <v>30</v>
+      </c>
+      <c r="K54" s="11">
+        <v>16.333333333333002</v>
+      </c>
+      <c r="L54" s="11">
+        <v>13.666666666667</v>
+      </c>
+      <c r="M54" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="20">
+        <v>300</v>
+      </c>
+      <c r="H55" s="11">
+        <v>54</v>
+      </c>
+      <c r="I55" s="11">
+        <v>40</v>
+      </c>
+      <c r="J55" s="11">
+        <v>23</v>
+      </c>
+      <c r="K55" s="11">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11">
+        <v>13.333333333333</v>
+      </c>
+      <c r="M55" s="12">
+        <v>7.6666666666666998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="17">
+        <f>SUM(G51:G55)/5</f>
+        <v>296.60000000000002</v>
+      </c>
+      <c r="H56" s="17">
+        <f>SUM(H51:H55)/5</f>
+        <v>52</v>
+      </c>
+      <c r="I56" s="17">
+        <f>SUM(I51:I55)/5</f>
+        <v>42.4</v>
+      </c>
+      <c r="J56" s="17">
+        <f>SUM(J51:J55)/5</f>
+        <v>29</v>
+      </c>
+      <c r="K56" s="14">
+        <f>100*H56/G56</f>
+        <v>17.53202966958867</v>
+      </c>
+      <c r="L56" s="14">
+        <f>100*I56/G56</f>
+        <v>14.295347269049223</v>
+      </c>
+      <c r="M56" s="14">
+        <f>100*J56/G56</f>
+        <v>9.7774780849629117</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F58" s="9"/>
+      <c r="G58" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="20">
+        <v>300</v>
+      </c>
+      <c r="H59" s="11">
+        <v>49</v>
+      </c>
+      <c r="I59" s="11">
+        <v>39</v>
+      </c>
+      <c r="J59" s="11">
+        <v>21</v>
+      </c>
+      <c r="K59" s="11">
+        <v>16.333333333333002</v>
+      </c>
+      <c r="L59" s="11">
+        <v>13</v>
+      </c>
+      <c r="M59" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="20">
+        <v>300</v>
+      </c>
+      <c r="H60" s="11">
+        <v>38</v>
+      </c>
+      <c r="I60" s="11">
+        <v>31</v>
+      </c>
+      <c r="J60" s="11">
+        <v>14</v>
+      </c>
+      <c r="K60" s="11">
+        <v>12.666666666667</v>
+      </c>
+      <c r="L60" s="11">
+        <v>10.333333333333</v>
+      </c>
+      <c r="M60" s="12">
+        <v>4.6666666666666998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="20">
+        <v>300</v>
+      </c>
+      <c r="H61" s="11">
+        <v>40</v>
+      </c>
+      <c r="I61" s="11">
+        <v>30</v>
+      </c>
+      <c r="J61" s="11">
+        <v>21</v>
+      </c>
+      <c r="K61" s="11">
+        <v>13.333333333333</v>
+      </c>
+      <c r="L61" s="11">
+        <v>10</v>
+      </c>
+      <c r="M61" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="20">
+        <v>300</v>
+      </c>
+      <c r="H62" s="11">
+        <v>32</v>
+      </c>
+      <c r="I62" s="11">
+        <v>23</v>
+      </c>
+      <c r="J62" s="11">
+        <v>11</v>
+      </c>
+      <c r="K62" s="11">
+        <v>10.666666666667</v>
+      </c>
+      <c r="L62" s="11">
+        <v>7.6666666666666998</v>
+      </c>
+      <c r="M62" s="12">
+        <v>3.6666666666666998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="20">
+        <v>279</v>
+      </c>
+      <c r="H63" s="11">
+        <v>43</v>
+      </c>
+      <c r="I63" s="11">
+        <v>34</v>
+      </c>
+      <c r="J63" s="11">
+        <v>14</v>
+      </c>
+      <c r="K63" s="11">
+        <v>15.412186379928</v>
+      </c>
+      <c r="L63" s="11">
+        <v>12.186379928315</v>
+      </c>
+      <c r="M63" s="12">
+        <v>5.0179211469534</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="17">
+        <f>SUM(G59:G63)/5</f>
+        <v>295.8</v>
+      </c>
+      <c r="H64" s="17">
+        <f>SUM(H59:H63)/5</f>
+        <v>40.4</v>
+      </c>
+      <c r="I64" s="17">
+        <f>SUM(I59:I63)/5</f>
+        <v>31.4</v>
+      </c>
+      <c r="J64" s="17">
+        <f>SUM(J59:J63)/5</f>
+        <v>16.2</v>
+      </c>
+      <c r="K64" s="14">
+        <f>100*H64/G64</f>
+        <v>13.657876943881</v>
+      </c>
+      <c r="L64" s="14">
+        <f>100*I64/G64</f>
+        <v>10.615280594996619</v>
+      </c>
+      <c r="M64" s="14">
+        <f>100*J64/G64</f>
+        <v>5.4766734279918863</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/validate.xlsx
+++ b/validate.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNDIEVOX-Recommend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1224" windowWidth="23040" windowHeight="9504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -88,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,8 +117,40 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8180"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -145,185 +180,283 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,9 +520,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,24 +878,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O64"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="15.77734375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="16" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="F2" s="9"/>
       <c r="G2" s="18" t="s">
         <v>13</v>
@@ -709,7 +920,7 @@
       </c>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="16" thickBot="1">
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
@@ -722,7 +933,7 @@
       <c r="M3" s="12"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,7 +956,7 @@
       <c r="M4" s="12"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -767,7 +978,7 @@
       <c r="M5" s="12"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15">
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
@@ -780,7 +991,7 @@
       <c r="M6" s="12"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15">
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
@@ -793,7 +1004,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="16" thickBot="1">
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
@@ -806,296 +1017,275 @@
       <c r="M8" s="15"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="9"/>
-      <c r="G10" s="18" t="s">
+    <row r="10" spans="2:15" ht="16" thickBot="1">
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="F11" s="9"/>
+      <c r="G11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="10" t="s">
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="2:15" ht="16" thickBot="1">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="20">
-        <v>300</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G12" s="20">
+        <v>300</v>
+      </c>
+      <c r="H12" s="11">
         <v>89</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I12" s="11">
         <v>71</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J12" s="11">
         <v>9</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K12" s="11">
         <v>29.666666666666998</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L12" s="11">
         <v>23.666666666666998</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M12" s="12">
         <v>3</v>
       </c>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="20">
-        <v>300</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G13" s="20">
+        <v>300</v>
+      </c>
+      <c r="H13" s="11">
         <v>100</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>86</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>10</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>33.333333333333002</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L13" s="11">
         <v>28.666666666666998</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M13" s="12">
         <v>3.3333333333333002</v>
       </c>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="2:15" ht="16" thickBot="1">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="20">
-        <v>300</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G14" s="20">
+        <v>300</v>
+      </c>
+      <c r="H14" s="11">
         <v>77</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>60</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>14</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>25.666666666666998</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <v>20</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M14" s="12">
         <v>4.6666666666666998</v>
       </c>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="10" t="s">
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="20">
-        <v>300</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G15" s="20">
+        <v>300</v>
+      </c>
+      <c r="H15" s="11">
         <v>94</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>66</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>12</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>31.333333333333002</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>22</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <v>4</v>
       </c>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F15" s="10" t="s">
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="F16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="20">
-        <v>300</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="G16" s="20">
+        <v>300</v>
+      </c>
+      <c r="H16" s="11">
         <v>99</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="11">
         <v>81</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="11">
         <v>11</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>33</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <v>27</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M16" s="12">
         <v>3.6666666666666998</v>
       </c>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="13" t="s">
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="2:15" ht="16" thickBot="1">
+      <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="17">
-        <f>SUM(G11:G15)/5</f>
-        <v>300</v>
-      </c>
-      <c r="H16" s="17">
-        <f>SUM(H11:H15)/5</f>
+      <c r="G17" s="17">
+        <f>SUM(G12:G16)/5</f>
+        <v>300</v>
+      </c>
+      <c r="H17" s="17">
+        <f>SUM(H12:H16)/5</f>
         <v>91.8</v>
       </c>
-      <c r="I16" s="17">
-        <f>SUM(I11:I15)/5</f>
+      <c r="I17" s="17">
+        <f>SUM(I12:I16)/5</f>
         <v>72.8</v>
       </c>
-      <c r="J16" s="17">
-        <f>SUM(J11:J15)/5</f>
+      <c r="J17" s="17">
+        <f>SUM(J12:J16)/5</f>
         <v>11.2</v>
       </c>
-      <c r="K16" s="14">
-        <f>100*H16/G16</f>
+      <c r="K17" s="14">
+        <f>100*H17/G17</f>
         <v>30.6</v>
       </c>
-      <c r="L16" s="14">
-        <f>100*I16/G16</f>
+      <c r="L17" s="14">
+        <f>100*I17/G17</f>
         <v>24.266666666666666</v>
       </c>
-      <c r="M16" s="14">
-        <f>100*J16/G16</f>
+      <c r="M17" s="14">
+        <f>100*J17/G17</f>
         <v>3.7333333333333334</v>
       </c>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="9"/>
-      <c r="G18" s="18" t="s">
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="2:15" ht="16" thickBot="1">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="F20" s="9"/>
+      <c r="G20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="10" t="s">
+    <row r="21" spans="2:15" ht="16" thickBot="1">
+      <c r="F21" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="11"/>
@@ -1105,9 +1295,19 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="11"/>
@@ -1117,9 +1317,18 @@
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="16" thickBot="1">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="11"/>
@@ -1129,1071 +1338,1189 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="13" t="s">
+    <row r="24" spans="2:15">
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="F25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="2:15" ht="16" thickBot="1">
+      <c r="F26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="9"/>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="2:15" ht="16" thickBot="1">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="F29" s="9"/>
+      <c r="G29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="10" t="s">
+    <row r="30" spans="2:15" ht="16" thickBot="1">
+      <c r="F30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="20">
-        <v>300</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="G30" s="20">
+        <v>300</v>
+      </c>
+      <c r="H30" s="11">
         <v>67</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I30" s="11">
         <v>59</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J30" s="11">
         <v>9</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K30" s="11">
         <v>22.333333333333002</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L30" s="11">
         <v>19.666666666666998</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M30" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+    <row r="31" spans="2:15">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="20">
-        <v>300</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="G31" s="20">
+        <v>300</v>
+      </c>
+      <c r="H31" s="11">
         <v>85</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I31" s="11">
         <v>79</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J31" s="11">
         <v>20</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K31" s="11">
         <v>28.333333333333002</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L31" s="11">
         <v>26.333333333333002</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M31" s="12">
         <v>6.6666666666666998</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    <row r="32" spans="2:15" ht="16" thickBot="1">
+      <c r="B32" s="5">
         <v>0</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C32" s="6">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D32" s="7">
         <v>1</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="20">
-        <v>300</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="G32" s="20">
+        <v>300</v>
+      </c>
+      <c r="H32" s="11">
         <v>78</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I32" s="11">
         <v>62</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J32" s="11">
         <v>15</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K32" s="11">
         <v>26</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L32" s="11">
         <v>20.666666666666998</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M32" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F30" s="10" t="s">
+    <row r="33" spans="2:13">
+      <c r="F33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="20">
-        <v>300</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="G33" s="20">
+        <v>300</v>
+      </c>
+      <c r="H33" s="11">
         <v>75</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I33" s="11">
         <v>64</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J33" s="11">
         <v>11</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K33" s="11">
         <v>25</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L33" s="11">
         <v>21.333333333333002</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M33" s="12">
         <v>3.6666666666666998</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="10" t="s">
+    <row r="34" spans="2:13">
+      <c r="F34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="20">
-        <v>300</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="G34" s="20">
+        <v>300</v>
+      </c>
+      <c r="H34" s="11">
         <v>105</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I34" s="11">
         <v>92</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J34" s="11">
         <v>14</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K34" s="11">
         <v>35</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L34" s="11">
         <v>30.666666666666998</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M34" s="12">
         <v>4.6666666666666998</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="13" t="s">
+    <row r="35" spans="2:13" ht="16" thickBot="1">
+      <c r="F35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="17">
-        <f>SUM(G27:G31)/5</f>
-        <v>300</v>
-      </c>
-      <c r="H32" s="17">
-        <f>SUM(H27:H31)/5</f>
+      <c r="G35" s="17">
+        <f>SUM(G30:G34)/5</f>
+        <v>300</v>
+      </c>
+      <c r="H35" s="17">
+        <f>SUM(H30:H34)/5</f>
         <v>82</v>
       </c>
-      <c r="I32" s="17">
-        <f>SUM(I27:I31)/5</f>
+      <c r="I35" s="17">
+        <f>SUM(I30:I34)/5</f>
         <v>71.2</v>
       </c>
-      <c r="J32" s="17">
-        <f>SUM(J27:J31)/5</f>
+      <c r="J35" s="17">
+        <f>SUM(J30:J34)/5</f>
         <v>13.8</v>
       </c>
-      <c r="K32" s="14">
-        <f>100*H32/G32</f>
+      <c r="K35" s="14">
+        <f>100*H35/G35</f>
         <v>27.333333333333332</v>
       </c>
-      <c r="L32" s="14">
-        <f>100*I32/G32</f>
+      <c r="L35" s="14">
+        <f>100*I35/G35</f>
         <v>23.733333333333334</v>
       </c>
-      <c r="M32" s="14">
-        <f>100*J32/G32</f>
+      <c r="M35" s="14">
+        <f>100*J35/G35</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F34" s="9"/>
-      <c r="G34" s="18" t="s">
+    <row r="36" spans="2:13">
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="2:13" ht="16" thickBot="1">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="F38" s="9"/>
+      <c r="G38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="10" t="s">
+    <row r="39" spans="2:13" ht="16" thickBot="1">
+      <c r="F39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="20">
-        <v>300</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="G39" s="20">
+        <v>300</v>
+      </c>
+      <c r="H39" s="11">
         <v>55</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I39" s="11">
         <v>52</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J39" s="11">
         <v>35</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K39" s="11">
         <v>18.333333333333002</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L39" s="11">
         <v>17.333333333333002</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M39" s="12">
         <v>11.666666666667</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+    <row r="40" spans="2:13">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G40" s="20">
         <v>297</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H40" s="11">
         <v>46</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I40" s="11">
         <v>37</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J40" s="11">
         <v>19</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K40" s="11">
         <v>15.488215488214999</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L40" s="11">
         <v>12.457912457912</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M40" s="12">
         <v>6.3973063973063997</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
+    <row r="41" spans="2:13" ht="16" thickBot="1">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C41" s="6">
         <v>0</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D41" s="7">
         <v>0</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="20">
-        <v>300</v>
-      </c>
-      <c r="H37" s="11">
+      <c r="G41" s="20">
+        <v>300</v>
+      </c>
+      <c r="H41" s="11">
         <v>42</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I41" s="11">
         <v>33</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J41" s="11">
         <v>25</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K41" s="11">
         <v>14</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L41" s="11">
         <v>11</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M41" s="12">
         <v>8.3333333333333002</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F38" s="10" t="s">
+    <row r="42" spans="2:13">
+      <c r="F42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="20">
-        <v>300</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="G42" s="20">
+        <v>300</v>
+      </c>
+      <c r="H42" s="11">
         <v>47</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I42" s="11">
         <v>29</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J42" s="11">
         <v>25</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K42" s="11">
         <v>15.666666666667</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L42" s="11">
         <v>9.6666666666666998</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M42" s="12">
         <v>8.3333333333333002</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F39" s="10" t="s">
+    <row r="43" spans="2:13">
+      <c r="F43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="20">
-        <v>300</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="G43" s="20">
+        <v>300</v>
+      </c>
+      <c r="H43" s="11">
         <v>39</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I43" s="11">
         <v>26</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J43" s="11">
         <v>19</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K43" s="11">
         <v>13</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L43" s="11">
         <v>8.6666666666666998</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M43" s="12">
         <v>6.3333333333333002</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F40" s="13" t="s">
+    <row r="44" spans="2:13" ht="16" thickBot="1">
+      <c r="F44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="17">
-        <f>SUM(G35:G39)/5</f>
+      <c r="G44" s="17">
+        <f>SUM(G39:G43)/5</f>
         <v>299.39999999999998</v>
       </c>
-      <c r="H40" s="17">
-        <f>SUM(H35:H39)/5</f>
+      <c r="H44" s="17">
+        <f>SUM(H39:H43)/5</f>
         <v>45.8</v>
       </c>
-      <c r="I40" s="17">
-        <f>SUM(I35:I39)/5</f>
+      <c r="I44" s="17">
+        <f>SUM(I39:I43)/5</f>
         <v>35.4</v>
       </c>
-      <c r="J40" s="17">
-        <f>SUM(J35:J39)/5</f>
+      <c r="J44" s="17">
+        <f>SUM(J39:J43)/5</f>
         <v>24.6</v>
       </c>
-      <c r="K40" s="14">
-        <f>100*H40/G40</f>
+      <c r="K44" s="14">
+        <f>100*H44/G44</f>
         <v>15.297261189044757</v>
       </c>
-      <c r="L40" s="14">
-        <f>100*I40/G40</f>
+      <c r="L44" s="14">
+        <f>100*I44/G44</f>
         <v>11.823647294589179</v>
       </c>
-      <c r="M40" s="14">
-        <f>100*J40/G40</f>
+      <c r="M44" s="14">
+        <f>100*J44/G44</f>
         <v>8.2164328657314627</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F42" s="9"/>
-      <c r="G42" s="18" t="s">
+    <row r="45" spans="2:13">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="2:13" ht="16" thickBot="1"/>
+    <row r="47" spans="2:13">
+      <c r="F47" s="9"/>
+      <c r="G47" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F43" s="10" t="s">
+    <row r="48" spans="2:13" ht="16" thickBot="1">
+      <c r="F48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="20">
-        <v>300</v>
-      </c>
-      <c r="H43" s="11">
+      <c r="G48" s="20">
+        <v>300</v>
+      </c>
+      <c r="H48" s="11">
         <v>33</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I48" s="11">
         <v>24</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J48" s="11">
         <v>22</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K48" s="11">
         <v>11</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L48" s="11">
         <v>8</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M48" s="12">
         <v>7.3333333333333002</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
+    <row r="49" spans="1:14">
+      <c r="B49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10" t="s">
+      <c r="E49" s="8"/>
+      <c r="F49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G49" s="20">
         <v>273</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H49" s="11">
         <v>20</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I49" s="11">
         <v>15</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J49" s="11">
         <v>9</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K49" s="11">
         <v>7.3260073260073</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L49" s="11">
         <v>5.4945054945054999</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M49" s="12">
         <v>3.2967032967033001</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
+    <row r="50" spans="1:14" ht="16" thickBot="1">
+      <c r="B50" s="5">
         <v>1</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D50" s="7">
         <v>1</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="20">
-        <v>300</v>
-      </c>
-      <c r="H45" s="11">
+      <c r="G50" s="20">
+        <v>300</v>
+      </c>
+      <c r="H50" s="11">
         <v>35</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I50" s="11">
         <v>25</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J50" s="11">
         <v>16</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K50" s="11">
         <v>11.666666666667</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L50" s="11">
         <v>8.3333333333333002</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M50" s="12">
         <v>5.3333333333333002</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F46" s="10" t="s">
+    <row r="51" spans="1:14">
+      <c r="F51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="20">
-        <v>300</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="G51" s="20">
+        <v>300</v>
+      </c>
+      <c r="H51" s="11">
         <v>32</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I51" s="11">
         <v>25</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J51" s="11">
         <v>19</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K51" s="11">
         <v>10.666666666667</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L51" s="11">
         <v>8.3333333333333002</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M51" s="12">
         <v>6.3333333333333002</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F47" s="10" t="s">
+    <row r="52" spans="1:14">
+      <c r="F52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="20">
-        <v>300</v>
-      </c>
-      <c r="H47" s="11">
+      <c r="G52" s="20">
+        <v>300</v>
+      </c>
+      <c r="H52" s="11">
         <v>30</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I52" s="11">
         <v>21</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J52" s="11">
         <v>15</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K52" s="11">
         <v>10</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L52" s="11">
         <v>7</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M52" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F48" s="13" t="s">
+    <row r="53" spans="1:14" ht="16" thickBot="1">
+      <c r="F53" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="17">
-        <f>SUM(G43:G47)/5</f>
+      <c r="G53" s="17">
+        <f>SUM(G48:G52)/5</f>
         <v>294.60000000000002</v>
       </c>
-      <c r="H48" s="17">
-        <f>SUM(H43:H47)/5</f>
+      <c r="H53" s="17">
+        <f>SUM(H48:H52)/5</f>
         <v>30</v>
       </c>
-      <c r="I48" s="17">
-        <f>SUM(I43:I47)/5</f>
+      <c r="I53" s="17">
+        <f>SUM(I48:I52)/5</f>
         <v>22</v>
       </c>
-      <c r="J48" s="17">
-        <f>SUM(J43:J47)/5</f>
+      <c r="J53" s="17">
+        <f>SUM(J48:J52)/5</f>
         <v>16.2</v>
       </c>
-      <c r="K48" s="14">
-        <f>100*H48/G48</f>
+      <c r="K53" s="14">
+        <f>100*H53/G53</f>
         <v>10.183299389002036</v>
       </c>
-      <c r="L48" s="14">
-        <f>100*I48/G48</f>
+      <c r="L53" s="14">
+        <f>100*I53/G53</f>
         <v>7.4677528852681601</v>
       </c>
-      <c r="M48" s="14">
-        <f>100*J48/G48</f>
+      <c r="M53" s="15">
+        <f>100*J53/G53</f>
         <v>5.4989816700610996</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F50" s="9"/>
-      <c r="G50" s="18" t="s">
+    <row r="54" spans="1:14" ht="16" thickBot="1">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" thickBot="1">
+      <c r="A55" s="42"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="1:14" ht="17">
+      <c r="A56" s="43"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H56" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I56" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J56" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K56" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L56" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M56" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F51" s="10" t="s">
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="1:14" ht="18" thickBot="1">
+      <c r="A57" s="43"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G57" s="32">
         <v>283</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H57" s="33">
         <v>52</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I57" s="33">
         <v>44</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J57" s="33">
         <v>28</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K57" s="33">
         <v>18.374558303887</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L57" s="33">
         <v>15.547703180212</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M57" s="34">
         <v>9.8939929328622007</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="1:14" ht="17">
+      <c r="A58" s="43"/>
+      <c r="B58" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D58" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="10" t="s">
+      <c r="E58" s="41"/>
+      <c r="F58" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="20">
-        <v>300</v>
-      </c>
-      <c r="H52" s="11">
+      <c r="G58" s="32">
+        <v>300</v>
+      </c>
+      <c r="H58" s="33">
         <v>43</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I58" s="33">
         <v>37</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J58" s="33">
         <v>27</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K58" s="33">
         <v>14.333333333333</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L58" s="33">
         <v>12.333333333333</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M58" s="34">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:14" ht="18" thickBot="1">
+      <c r="A59" s="43"/>
+      <c r="B59" s="26">
         <v>1</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C59" s="27">
         <v>1</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D59" s="28">
         <v>0</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="E59" s="41"/>
+      <c r="F59" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="20">
-        <v>300</v>
-      </c>
-      <c r="H53" s="11">
+      <c r="G59" s="32">
+        <v>300</v>
+      </c>
+      <c r="H59" s="33">
         <v>62</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I59" s="33">
         <v>50</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J59" s="33">
         <v>37</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K59" s="33">
         <v>20.666666666666998</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L59" s="33">
         <v>16.666666666666998</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M59" s="34">
         <v>12.333333333333</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F54" s="10" t="s">
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="1:14" ht="17">
+      <c r="A60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="20">
-        <v>300</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="G60" s="32">
+        <v>300</v>
+      </c>
+      <c r="H60" s="33">
         <v>49</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I60" s="33">
         <v>41</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J60" s="33">
         <v>30</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K60" s="33">
         <v>16.333333333333002</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L60" s="33">
         <v>13.666666666667</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M60" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F55" s="10" t="s">
+      <c r="N60" s="37"/>
+    </row>
+    <row r="61" spans="1:14" ht="17">
+      <c r="A61" s="43"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="20">
-        <v>300</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="G61" s="32">
+        <v>300</v>
+      </c>
+      <c r="H61" s="33">
         <v>54</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I61" s="33">
         <v>40</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J61" s="33">
         <v>23</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K61" s="33">
         <v>18</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L61" s="33">
         <v>13.333333333333</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M61" s="34">
         <v>7.6666666666666998</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F56" s="13" t="s">
+      <c r="N61" s="37"/>
+    </row>
+    <row r="62" spans="1:14" ht="18" thickBot="1">
+      <c r="A62" s="43"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="17">
-        <f>SUM(G51:G55)/5</f>
+      <c r="G62" s="30">
+        <f>SUM(G57:G61)/5</f>
         <v>296.60000000000002</v>
       </c>
-      <c r="H56" s="17">
-        <f>SUM(H51:H55)/5</f>
+      <c r="H62" s="30">
+        <f>SUM(H57:H61)/5</f>
         <v>52</v>
       </c>
-      <c r="I56" s="17">
-        <f>SUM(I51:I55)/5</f>
+      <c r="I62" s="30">
+        <f>SUM(I57:I61)/5</f>
         <v>42.4</v>
       </c>
-      <c r="J56" s="17">
-        <f>SUM(J51:J55)/5</f>
+      <c r="J62" s="30">
+        <f>SUM(J57:J61)/5</f>
         <v>29</v>
       </c>
-      <c r="K56" s="14">
-        <f>100*H56/G56</f>
+      <c r="K62" s="31">
+        <f>100*H62/G62</f>
         <v>17.53202966958867</v>
       </c>
-      <c r="L56" s="14">
-        <f>100*I56/G56</f>
+      <c r="L62" s="31">
+        <f>100*I62/G62</f>
         <v>14.295347269049223</v>
       </c>
-      <c r="M56" s="14">
-        <f>100*J56/G56</f>
+      <c r="M62" s="31">
+        <f>100*J62/G62</f>
         <v>9.7774780849629117</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F58" s="9"/>
-      <c r="G58" s="18" t="s">
+      <c r="N62" s="37"/>
+    </row>
+    <row r="63" spans="1:14" ht="18" thickBot="1">
+      <c r="A63" s="44"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="38"/>
+    </row>
+    <row r="64" spans="1:14" ht="16" thickBot="1"/>
+    <row r="65" spans="2:13">
+      <c r="F65" s="9"/>
+      <c r="G65" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F59" s="10" t="s">
+    <row r="66" spans="2:13" ht="16" thickBot="1">
+      <c r="F66" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="20">
-        <v>300</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="G66" s="20">
+        <v>300</v>
+      </c>
+      <c r="H66" s="11">
         <v>49</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I66" s="11">
         <v>39</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J66" s="11">
         <v>21</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K66" s="11">
         <v>16.333333333333002</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L66" s="11">
         <v>13</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M66" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+    <row r="67" spans="2:13">
+      <c r="B67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="10" t="s">
+      <c r="E67" s="8"/>
+      <c r="F67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="20">
-        <v>300</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="G67" s="20">
+        <v>300</v>
+      </c>
+      <c r="H67" s="11">
         <v>38</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I67" s="11">
         <v>31</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J67" s="11">
         <v>14</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K67" s="11">
         <v>12.666666666667</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L67" s="11">
         <v>10.333333333333</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M67" s="12">
         <v>4.6666666666666998</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
+    <row r="68" spans="2:13" ht="16" thickBot="1">
+      <c r="B68" s="5">
         <v>1</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C68" s="6">
         <v>1</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D68" s="7">
         <v>1</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="20">
-        <v>300</v>
-      </c>
-      <c r="H61" s="11">
+      <c r="G68" s="20">
+        <v>300</v>
+      </c>
+      <c r="H68" s="11">
         <v>40</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I68" s="11">
         <v>30</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J68" s="11">
         <v>21</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K68" s="11">
         <v>13.333333333333</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L68" s="11">
         <v>10</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M68" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F62" s="10" t="s">
+    <row r="69" spans="2:13">
+      <c r="F69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="20">
-        <v>300</v>
-      </c>
-      <c r="H62" s="11">
+      <c r="G69" s="20">
+        <v>300</v>
+      </c>
+      <c r="H69" s="11">
         <v>32</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I69" s="11">
         <v>23</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J69" s="11">
         <v>11</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K69" s="11">
         <v>10.666666666667</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L69" s="11">
         <v>7.6666666666666998</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M69" s="12">
         <v>3.6666666666666998</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F63" s="10" t="s">
+    <row r="70" spans="2:13">
+      <c r="F70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G70" s="20">
         <v>279</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H70" s="11">
         <v>43</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I70" s="11">
         <v>34</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J70" s="11">
         <v>14</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K70" s="11">
         <v>15.412186379928</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L70" s="11">
         <v>12.186379928315</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M70" s="12">
         <v>5.0179211469534</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F64" s="13" t="s">
+    <row r="71" spans="2:13" ht="16" thickBot="1">
+      <c r="F71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="17">
-        <f>SUM(G59:G63)/5</f>
+      <c r="G71" s="17">
+        <f>SUM(G66:G70)/5</f>
         <v>295.8</v>
       </c>
-      <c r="H64" s="17">
-        <f>SUM(H59:H63)/5</f>
+      <c r="H71" s="17">
+        <f>SUM(H66:H70)/5</f>
         <v>40.4</v>
       </c>
-      <c r="I64" s="17">
-        <f>SUM(I59:I63)/5</f>
+      <c r="I71" s="17">
+        <f>SUM(I66:I70)/5</f>
         <v>31.4</v>
       </c>
-      <c r="J64" s="17">
-        <f>SUM(J59:J63)/5</f>
+      <c r="J71" s="17">
+        <f>SUM(J66:J70)/5</f>
         <v>16.2</v>
       </c>
-      <c r="K64" s="14">
-        <f>100*H64/G64</f>
+      <c r="K71" s="14">
+        <f>100*H71/G71</f>
         <v>13.657876943881</v>
       </c>
-      <c r="L64" s="14">
-        <f>100*I64/G64</f>
+      <c r="L71" s="14">
+        <f>100*I71/G71</f>
         <v>10.615280594996619</v>
       </c>
-      <c r="M64" s="14">
-        <f>100*J64/G64</f>
+      <c r="M71" s="15">
+        <f>100*J71/G71</f>
         <v>5.4766734279918863</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/validate.xlsx
+++ b/validate.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNDIEVOX-Recommend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="408" windowWidth="28104" windowHeight="17544" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="15">
   <si>
     <t>similar artist</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +596,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,22 +892,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="15.83203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F2" s="9"/>
       <c r="G2" s="18" t="s">
         <v>13</v>
@@ -920,7 +932,7 @@
       </c>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="2:15" ht="16" thickBot="1">
+    <row r="3" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
@@ -933,7 +945,7 @@
       <c r="M3" s="12"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,7 +968,7 @@
       <c r="M4" s="12"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -978,7 +990,7 @@
       <c r="M5" s="12"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
@@ -991,7 +1003,7 @@
       <c r="M6" s="12"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1016,7 @@
       <c r="M7" s="12"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="2:15" ht="16" thickBot="1">
+    <row r="8" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1029,7 @@
       <c r="M8" s="15"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -1028,10 +1040,10 @@
       <c r="M9" s="35"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+    <row r="10" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F11" s="9"/>
       <c r="G11" s="18" t="s">
         <v>13</v>
@@ -1056,7 +1068,7 @@
       </c>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1">
+    <row r="12" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1095,7 @@
       </c>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1132,7 @@
       </c>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+    <row r="14" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>0</v>
       </c>
@@ -1156,7 +1168,7 @@
       </c>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1195,7 @@
       </c>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F16" s="10" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1222,7 @@
       </c>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="2:15" ht="16" thickBot="1">
+    <row r="17" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1256,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
@@ -1255,11 +1267,11 @@
       <c r="M18" s="35"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="2:15" ht="16" thickBot="1">
+    <row r="19" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F20" s="9"/>
       <c r="G20" s="18" t="s">
         <v>13</v>
@@ -1283,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="16" thickBot="1">
+    <row r="21" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1307,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1329,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:15" ht="16" thickBot="1">
+    <row r="23" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>0</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1362,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1374,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
+    <row r="26" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="13" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1386,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
@@ -1384,12 +1396,12 @@
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="2:15" ht="16" thickBot="1">
+    <row r="28" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F29" s="9"/>
       <c r="G29" s="18" t="s">
         <v>13</v>
@@ -1413,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="16" thickBot="1">
+    <row r="30" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F30" s="10" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>6.6666666666666998</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="16" thickBot="1">
+    <row r="32" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>0</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F33" s="10" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>3.6666666666666998</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>4.6666666666666998</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="16" thickBot="1">
+    <row r="35" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F35" s="13" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
@@ -1605,12 +1617,12 @@
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
     </row>
-    <row r="37" spans="2:13" ht="16" thickBot="1">
+    <row r="37" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F38" s="9"/>
       <c r="G38" s="18" t="s">
         <v>13</v>
@@ -1634,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="16" thickBot="1">
+    <row r="39" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F39" s="10" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>11.666666666667</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>6.3973063973063997</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="16" thickBot="1">
+    <row r="41" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>1</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>8.3333333333333002</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>8.3333333333333002</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F43" s="10" t="s">
         <v>11</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>6.3333333333333002</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="16" thickBot="1">
+    <row r="44" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44" s="13" t="s">
         <v>12</v>
       </c>
@@ -1816,13 +1828,13 @@
         <v>8.2164328657314627</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:13" ht="16" thickBot="1"/>
-    <row r="47" spans="2:13">
+    <row r="46" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F47" s="9"/>
       <c r="G47" s="18" t="s">
         <v>13</v>
@@ -1846,7 +1858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="16" thickBot="1">
+    <row r="48" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F48" s="10" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>7.3333333333333002</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>3.2967032967033001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" thickBot="1">
+    <row r="50" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
         <v>1</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>5.3333333333333002</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F51" s="10" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>6.3333333333333002</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F52" s="10" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1">
+    <row r="53" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F53" s="13" t="s">
         <v>12</v>
       </c>
@@ -2028,12 +2040,12 @@
         <v>5.4989816700610996</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16" thickBot="1">
+    <row r="54" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="18" thickBot="1">
+    <row r="55" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -2049,7 +2061,7 @@
       <c r="M55" s="40"/>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="1:14" ht="17">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="N56" s="37"/>
     </row>
-    <row r="57" spans="1:14" ht="18" thickBot="1">
+    <row r="57" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -2111,7 +2123,7 @@
       </c>
       <c r="N57" s="37"/>
     </row>
-    <row r="58" spans="1:14" ht="17">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="22" t="s">
         <v>3</v>
@@ -2149,7 +2161,7 @@
       </c>
       <c r="N58" s="37"/>
     </row>
-    <row r="59" spans="1:14" ht="18" thickBot="1">
+    <row r="59" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="43"/>
       <c r="B59" s="26">
         <v>1</v>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="N59" s="37"/>
     </row>
-    <row r="60" spans="1:14" ht="17">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -2219,7 +2231,7 @@
       </c>
       <c r="N60" s="37"/>
     </row>
-    <row r="61" spans="1:14" ht="17">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -2251,7 +2263,7 @@
       </c>
       <c r="N61" s="37"/>
     </row>
-    <row r="62" spans="1:14" ht="18" thickBot="1">
+    <row r="62" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -2290,7 +2302,7 @@
       </c>
       <c r="N62" s="37"/>
     </row>
-    <row r="63" spans="1:14" ht="18" thickBot="1">
+    <row r="63" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -2306,8 +2318,8 @@
       <c r="M63" s="39"/>
       <c r="N63" s="38"/>
     </row>
-    <row r="64" spans="1:14" ht="16" thickBot="1"/>
-    <row r="65" spans="2:13">
+    <row r="64" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F65" s="9"/>
       <c r="G65" s="18" t="s">
         <v>13</v>
@@ -2331,7 +2343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="16" thickBot="1">
+    <row r="66" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F66" s="10" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +2405,7 @@
         <v>4.6666666666666998</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="16" thickBot="1">
+    <row r="68" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
         <v>1</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F69" s="10" t="s">
         <v>10</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>3.6666666666666998</v>
       </c>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F70" s="10" t="s">
         <v>11</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>5.0179211469534</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="16" thickBot="1">
+    <row r="71" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F71" s="13" t="s">
         <v>12</v>
       </c>
@@ -2516,11 +2528,1832 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F2" s="9"/>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="20">
+        <v>300</v>
+      </c>
+      <c r="H3" s="11">
+        <v>191</v>
+      </c>
+      <c r="I3" s="11">
+        <v>180</v>
+      </c>
+      <c r="J3" s="11">
+        <v>33</v>
+      </c>
+      <c r="K3" s="45">
+        <v>63.666666666666998</v>
+      </c>
+      <c r="L3" s="45">
+        <v>60</v>
+      </c>
+      <c r="M3" s="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20">
+        <v>300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>155</v>
+      </c>
+      <c r="I4" s="11">
+        <v>140</v>
+      </c>
+      <c r="J4" s="11">
+        <v>30</v>
+      </c>
+      <c r="K4" s="45">
+        <v>51.666666666666998</v>
+      </c>
+      <c r="L4" s="45">
+        <v>46.666666666666998</v>
+      </c>
+      <c r="M4" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="20">
+        <v>300</v>
+      </c>
+      <c r="H5" s="11">
+        <v>203</v>
+      </c>
+      <c r="I5" s="11">
+        <v>188</v>
+      </c>
+      <c r="J5" s="11">
+        <v>25</v>
+      </c>
+      <c r="K5" s="45">
+        <v>67.666666666666998</v>
+      </c>
+      <c r="L5" s="45">
+        <v>62.666666666666998</v>
+      </c>
+      <c r="M5" s="45">
+        <v>8.3333333333333002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20">
+        <v>300</v>
+      </c>
+      <c r="H6" s="11">
+        <v>146</v>
+      </c>
+      <c r="I6" s="11">
+        <v>131</v>
+      </c>
+      <c r="J6" s="11">
+        <v>23</v>
+      </c>
+      <c r="K6" s="45">
+        <v>48.666666666666998</v>
+      </c>
+      <c r="L6" s="45">
+        <v>43.666666666666998</v>
+      </c>
+      <c r="M6" s="45">
+        <v>7.6666666666666998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="20">
+        <v>300</v>
+      </c>
+      <c r="H7" s="11">
+        <v>168</v>
+      </c>
+      <c r="I7" s="11">
+        <v>158</v>
+      </c>
+      <c r="J7" s="11">
+        <v>24</v>
+      </c>
+      <c r="K7" s="45">
+        <v>56</v>
+      </c>
+      <c r="L7" s="45">
+        <v>52.666666666666998</v>
+      </c>
+      <c r="M7" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="17">
+        <f>AVERAGE(G3:G7)</f>
+        <v>300</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" ref="H8" si="0">AVERAGE(H3:H7)</f>
+        <v>172.6</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" ref="I8" si="1">AVERAGE(I3:I7)</f>
+        <v>159.4</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" ref="J8" si="2">AVERAGE(J3:J7)</f>
+        <v>27</v>
+      </c>
+      <c r="K8" s="46">
+        <f>100*H8/G8</f>
+        <v>57.533333333333331</v>
+      </c>
+      <c r="L8" s="46">
+        <f>100*I8/G8</f>
+        <v>53.133333333333333</v>
+      </c>
+      <c r="M8" s="46">
+        <f>100*J8/G8</f>
+        <v>9</v>
+      </c>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F11" s="9"/>
+      <c r="G11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="20">
+        <v>300</v>
+      </c>
+      <c r="H12" s="11">
+        <v>143</v>
+      </c>
+      <c r="I12" s="11">
+        <v>138</v>
+      </c>
+      <c r="J12" s="11">
+        <v>11</v>
+      </c>
+      <c r="K12" s="45">
+        <v>47.666666666666998</v>
+      </c>
+      <c r="L12" s="45">
+        <v>46</v>
+      </c>
+      <c r="M12" s="45">
+        <v>3.6666666666666998</v>
+      </c>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="20">
+        <v>300</v>
+      </c>
+      <c r="H13" s="11">
+        <v>142</v>
+      </c>
+      <c r="I13" s="11">
+        <v>141</v>
+      </c>
+      <c r="J13" s="11">
+        <v>17</v>
+      </c>
+      <c r="K13" s="45">
+        <v>47.333333333333002</v>
+      </c>
+      <c r="L13" s="45">
+        <v>47</v>
+      </c>
+      <c r="M13" s="45">
+        <v>5.6666666666666998</v>
+      </c>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="20">
+        <v>300</v>
+      </c>
+      <c r="H14" s="11">
+        <v>134</v>
+      </c>
+      <c r="I14" s="11">
+        <v>124</v>
+      </c>
+      <c r="J14" s="11">
+        <v>16</v>
+      </c>
+      <c r="K14" s="45">
+        <v>44.666666666666998</v>
+      </c>
+      <c r="L14" s="45">
+        <v>41.333333333333002</v>
+      </c>
+      <c r="M14" s="45">
+        <v>5.3333333333333002</v>
+      </c>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="20">
+        <v>300</v>
+      </c>
+      <c r="H15" s="11">
+        <v>125</v>
+      </c>
+      <c r="I15" s="11">
+        <v>119</v>
+      </c>
+      <c r="J15" s="11">
+        <v>21</v>
+      </c>
+      <c r="K15" s="45">
+        <v>41.666666666666998</v>
+      </c>
+      <c r="L15" s="45">
+        <v>39.666666666666998</v>
+      </c>
+      <c r="M15" s="45">
+        <v>7</v>
+      </c>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="20">
+        <v>300</v>
+      </c>
+      <c r="H16" s="11">
+        <v>115</v>
+      </c>
+      <c r="I16" s="11">
+        <v>104</v>
+      </c>
+      <c r="J16" s="11">
+        <v>14</v>
+      </c>
+      <c r="K16" s="45">
+        <v>38.333333333333002</v>
+      </c>
+      <c r="L16" s="45">
+        <v>34.666666666666998</v>
+      </c>
+      <c r="M16" s="45">
+        <v>4.6666666666666998</v>
+      </c>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="17">
+        <f>AVERAGE(G12:G16)</f>
+        <v>300</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" ref="H17:J17" si="3">AVERAGE(H12:H16)</f>
+        <v>131.80000000000001</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="3"/>
+        <v>125.2</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="3"/>
+        <v>15.8</v>
+      </c>
+      <c r="K17" s="46">
+        <f>100*H17/G17</f>
+        <v>43.933333333333337</v>
+      </c>
+      <c r="L17" s="46">
+        <f>100*I17/G17</f>
+        <v>41.733333333333334</v>
+      </c>
+      <c r="M17" s="46">
+        <f>100*J17/G17</f>
+        <v>5.2666666666666666</v>
+      </c>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F20" s="9"/>
+      <c r="G20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="20">
+        <v>300</v>
+      </c>
+      <c r="H21" s="11">
+        <v>158</v>
+      </c>
+      <c r="I21" s="11">
+        <v>134</v>
+      </c>
+      <c r="J21" s="11">
+        <v>30</v>
+      </c>
+      <c r="K21" s="45">
+        <v>52.666666666666998</v>
+      </c>
+      <c r="L21" s="45">
+        <v>44.666666666666998</v>
+      </c>
+      <c r="M21" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="20">
+        <v>300</v>
+      </c>
+      <c r="H22" s="11">
+        <v>153</v>
+      </c>
+      <c r="I22" s="11">
+        <v>121</v>
+      </c>
+      <c r="J22" s="11">
+        <v>21</v>
+      </c>
+      <c r="K22" s="45">
+        <v>51</v>
+      </c>
+      <c r="L22" s="45">
+        <v>40.333333333333002</v>
+      </c>
+      <c r="M22" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="20">
+        <v>300</v>
+      </c>
+      <c r="H23" s="11">
+        <v>185</v>
+      </c>
+      <c r="I23" s="11">
+        <v>176</v>
+      </c>
+      <c r="J23" s="11">
+        <v>18</v>
+      </c>
+      <c r="K23" s="45">
+        <v>61.666666666666998</v>
+      </c>
+      <c r="L23" s="45">
+        <v>58.666666666666998</v>
+      </c>
+      <c r="M23" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="20">
+        <v>300</v>
+      </c>
+      <c r="H24" s="11">
+        <v>111</v>
+      </c>
+      <c r="I24" s="11">
+        <v>106</v>
+      </c>
+      <c r="J24" s="11">
+        <v>16</v>
+      </c>
+      <c r="K24" s="45">
+        <v>37</v>
+      </c>
+      <c r="L24" s="45">
+        <v>35.333333333333002</v>
+      </c>
+      <c r="M24" s="45">
+        <v>5.3333333333333002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="20">
+        <v>300</v>
+      </c>
+      <c r="H25" s="11">
+        <v>190</v>
+      </c>
+      <c r="I25" s="11">
+        <v>182</v>
+      </c>
+      <c r="J25" s="11">
+        <v>26</v>
+      </c>
+      <c r="K25" s="45">
+        <v>63.333333333333002</v>
+      </c>
+      <c r="L25" s="45">
+        <v>60.666666666666998</v>
+      </c>
+      <c r="M25" s="45">
+        <v>8.6666666666666998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="17">
+        <f>AVERAGE(G21:G25)</f>
+        <v>300</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" ref="H26" si="4">AVERAGE(H21:H25)</f>
+        <v>159.4</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" ref="I26" si="5">AVERAGE(I21:I25)</f>
+        <v>143.80000000000001</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" ref="J26" si="6">AVERAGE(J21:J25)</f>
+        <v>22.2</v>
+      </c>
+      <c r="K26" s="46">
+        <f>100*H26/G26</f>
+        <v>53.133333333333333</v>
+      </c>
+      <c r="L26" s="46">
+        <f>100*I26/G26</f>
+        <v>47.933333333333337</v>
+      </c>
+      <c r="M26" s="46">
+        <f>100*J26/G26</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="9"/>
+      <c r="G29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="20">
+        <v>300</v>
+      </c>
+      <c r="H30" s="11">
+        <v>127</v>
+      </c>
+      <c r="I30" s="11">
+        <v>117</v>
+      </c>
+      <c r="J30" s="11">
+        <v>16</v>
+      </c>
+      <c r="K30" s="45">
+        <v>42.333333333333002</v>
+      </c>
+      <c r="L30" s="45">
+        <v>39</v>
+      </c>
+      <c r="M30" s="45">
+        <v>5.3333333333333002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="20">
+        <v>300</v>
+      </c>
+      <c r="H31" s="11">
+        <v>104</v>
+      </c>
+      <c r="I31" s="11">
+        <v>97</v>
+      </c>
+      <c r="J31" s="11">
+        <v>18</v>
+      </c>
+      <c r="K31" s="45">
+        <v>34.666666666666998</v>
+      </c>
+      <c r="L31" s="45">
+        <v>32.333333333333002</v>
+      </c>
+      <c r="M31" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="20">
+        <v>300</v>
+      </c>
+      <c r="H32" s="11">
+        <v>76</v>
+      </c>
+      <c r="I32" s="11">
+        <v>62</v>
+      </c>
+      <c r="J32" s="11">
+        <v>16</v>
+      </c>
+      <c r="K32" s="45">
+        <v>25.333333333333002</v>
+      </c>
+      <c r="L32" s="45">
+        <v>20.666666666666998</v>
+      </c>
+      <c r="M32" s="45">
+        <v>5.3333333333333002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="20">
+        <v>300</v>
+      </c>
+      <c r="H33" s="11">
+        <v>96</v>
+      </c>
+      <c r="I33" s="11">
+        <v>88</v>
+      </c>
+      <c r="J33" s="11">
+        <v>15</v>
+      </c>
+      <c r="K33" s="45">
+        <v>32</v>
+      </c>
+      <c r="L33" s="45">
+        <v>29.333333333333002</v>
+      </c>
+      <c r="M33" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="20">
+        <v>300</v>
+      </c>
+      <c r="H34" s="11">
+        <v>115</v>
+      </c>
+      <c r="I34" s="11">
+        <v>106</v>
+      </c>
+      <c r="J34" s="11">
+        <v>10</v>
+      </c>
+      <c r="K34" s="45">
+        <v>38.333333333333002</v>
+      </c>
+      <c r="L34" s="45">
+        <v>35.333333333333002</v>
+      </c>
+      <c r="M34" s="45">
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="17">
+        <f>AVERAGE(G30:G34)</f>
+        <v>300</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" ref="H35" si="7">AVERAGE(H30:H34)</f>
+        <v>103.6</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" ref="I35" si="8">AVERAGE(I30:I34)</f>
+        <v>94</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" ref="J35" si="9">AVERAGE(J30:J34)</f>
+        <v>15</v>
+      </c>
+      <c r="K35" s="46">
+        <f>100*H35/G35</f>
+        <v>34.533333333333331</v>
+      </c>
+      <c r="L35" s="46">
+        <f>100*I35/G35</f>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="M35" s="46">
+        <f>100*J35/G35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F38" s="9"/>
+      <c r="G38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="20">
+        <v>300</v>
+      </c>
+      <c r="H39" s="11">
+        <v>67</v>
+      </c>
+      <c r="I39" s="11">
+        <v>60</v>
+      </c>
+      <c r="J39" s="11">
+        <v>46</v>
+      </c>
+      <c r="K39" s="45">
+        <v>22.333333333333002</v>
+      </c>
+      <c r="L39" s="45">
+        <v>20</v>
+      </c>
+      <c r="M39" s="45">
+        <v>15.333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="20">
+        <v>300</v>
+      </c>
+      <c r="H40" s="11">
+        <v>62</v>
+      </c>
+      <c r="I40" s="11">
+        <v>57</v>
+      </c>
+      <c r="J40" s="11">
+        <v>35</v>
+      </c>
+      <c r="K40" s="45">
+        <v>20.666666666666998</v>
+      </c>
+      <c r="L40" s="45">
+        <v>19</v>
+      </c>
+      <c r="M40" s="45">
+        <v>11.666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="20">
+        <v>300</v>
+      </c>
+      <c r="H41" s="11">
+        <v>63</v>
+      </c>
+      <c r="I41" s="11">
+        <v>51</v>
+      </c>
+      <c r="J41" s="11">
+        <v>36</v>
+      </c>
+      <c r="K41" s="45">
+        <v>21</v>
+      </c>
+      <c r="L41" s="45">
+        <v>17</v>
+      </c>
+      <c r="M41" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="20">
+        <v>300</v>
+      </c>
+      <c r="H42" s="11">
+        <v>42</v>
+      </c>
+      <c r="I42" s="11">
+        <v>37</v>
+      </c>
+      <c r="J42" s="11">
+        <v>31</v>
+      </c>
+      <c r="K42" s="45">
+        <v>14</v>
+      </c>
+      <c r="L42" s="45">
+        <v>12.333333333333</v>
+      </c>
+      <c r="M42" s="45">
+        <v>10.333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="20">
+        <v>300</v>
+      </c>
+      <c r="H43" s="11">
+        <v>47</v>
+      </c>
+      <c r="I43" s="11">
+        <v>43</v>
+      </c>
+      <c r="J43" s="11">
+        <v>30</v>
+      </c>
+      <c r="K43" s="45">
+        <v>15.666666666667</v>
+      </c>
+      <c r="L43" s="45">
+        <v>14.333333333333</v>
+      </c>
+      <c r="M43" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="17">
+        <f>AVERAGE(G39:G43)</f>
+        <v>300</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" ref="H44" si="10">AVERAGE(H39:H43)</f>
+        <v>56.2</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" ref="I44" si="11">AVERAGE(I39:I43)</f>
+        <v>49.6</v>
+      </c>
+      <c r="J44" s="17">
+        <f t="shared" ref="J44" si="12">AVERAGE(J39:J43)</f>
+        <v>35.6</v>
+      </c>
+      <c r="K44" s="46">
+        <f>100*H44/G44</f>
+        <v>18.733333333333334</v>
+      </c>
+      <c r="L44" s="46">
+        <f>100*I44/G44</f>
+        <v>16.533333333333335</v>
+      </c>
+      <c r="M44" s="46">
+        <f>100*J44/G44</f>
+        <v>11.866666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F47" s="9"/>
+      <c r="G47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="20">
+        <v>300</v>
+      </c>
+      <c r="H48" s="11">
+        <v>42</v>
+      </c>
+      <c r="I48" s="11">
+        <v>36</v>
+      </c>
+      <c r="J48" s="11">
+        <v>26</v>
+      </c>
+      <c r="K48" s="45">
+        <v>14</v>
+      </c>
+      <c r="L48" s="45">
+        <v>12</v>
+      </c>
+      <c r="M48" s="45">
+        <v>8.6666666666666998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="20">
+        <v>300</v>
+      </c>
+      <c r="H49" s="11">
+        <v>33</v>
+      </c>
+      <c r="I49" s="11">
+        <v>31</v>
+      </c>
+      <c r="J49" s="11">
+        <v>22</v>
+      </c>
+      <c r="K49" s="45">
+        <v>11</v>
+      </c>
+      <c r="L49" s="45">
+        <v>10.333333333333</v>
+      </c>
+      <c r="M49" s="45">
+        <v>7.3333333333333002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="20">
+        <v>300</v>
+      </c>
+      <c r="H50" s="11">
+        <v>28</v>
+      </c>
+      <c r="I50" s="11">
+        <v>23</v>
+      </c>
+      <c r="J50" s="11">
+        <v>16</v>
+      </c>
+      <c r="K50" s="45">
+        <v>9.3333333333333002</v>
+      </c>
+      <c r="L50" s="45">
+        <v>7.6666666666666998</v>
+      </c>
+      <c r="M50" s="45">
+        <v>5.3333333333333002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="20">
+        <v>300</v>
+      </c>
+      <c r="H51" s="11">
+        <v>25</v>
+      </c>
+      <c r="I51" s="11">
+        <v>21</v>
+      </c>
+      <c r="J51" s="11">
+        <v>17</v>
+      </c>
+      <c r="K51" s="45">
+        <v>8.3333333333333002</v>
+      </c>
+      <c r="L51" s="45">
+        <v>7</v>
+      </c>
+      <c r="M51" s="45">
+        <v>5.6666666666666998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="20">
+        <v>300</v>
+      </c>
+      <c r="H52" s="11">
+        <v>38</v>
+      </c>
+      <c r="I52" s="11">
+        <v>30</v>
+      </c>
+      <c r="J52" s="11">
+        <v>22</v>
+      </c>
+      <c r="K52" s="45">
+        <v>12.666666666667</v>
+      </c>
+      <c r="L52" s="45">
+        <v>10</v>
+      </c>
+      <c r="M52" s="45">
+        <v>7.3333333333333002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="17">
+        <f>AVERAGE(G48:G52)</f>
+        <v>300</v>
+      </c>
+      <c r="H53" s="17">
+        <f t="shared" ref="H53" si="13">AVERAGE(H48:H52)</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I53" s="17">
+        <f t="shared" ref="I53" si="14">AVERAGE(I48:I52)</f>
+        <v>28.2</v>
+      </c>
+      <c r="J53" s="17">
+        <f t="shared" ref="J53" si="15">AVERAGE(J48:J52)</f>
+        <v>20.6</v>
+      </c>
+      <c r="K53" s="46">
+        <f>100*H53/G53</f>
+        <v>11.066666666666668</v>
+      </c>
+      <c r="L53" s="46">
+        <f>100*I53/G53</f>
+        <v>9.4</v>
+      </c>
+      <c r="M53" s="46">
+        <f>100*J53/G53</f>
+        <v>6.8666666666666663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="42"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="43"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="20">
+        <v>300</v>
+      </c>
+      <c r="H57" s="11">
+        <v>68</v>
+      </c>
+      <c r="I57" s="11">
+        <v>66</v>
+      </c>
+      <c r="J57" s="11">
+        <v>41</v>
+      </c>
+      <c r="K57" s="45">
+        <v>22.666666666666998</v>
+      </c>
+      <c r="L57" s="45">
+        <v>22</v>
+      </c>
+      <c r="M57" s="45">
+        <v>13.666666666667</v>
+      </c>
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="20">
+        <v>300</v>
+      </c>
+      <c r="H58" s="11">
+        <v>59</v>
+      </c>
+      <c r="I58" s="11">
+        <v>54</v>
+      </c>
+      <c r="J58" s="11">
+        <v>38</v>
+      </c>
+      <c r="K58" s="45">
+        <v>19.666666666666998</v>
+      </c>
+      <c r="L58" s="45">
+        <v>18</v>
+      </c>
+      <c r="M58" s="45">
+        <v>12.666666666667</v>
+      </c>
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="43"/>
+      <c r="B59" s="26">
+        <v>1</v>
+      </c>
+      <c r="C59" s="27">
+        <v>1</v>
+      </c>
+      <c r="D59" s="28">
+        <v>0</v>
+      </c>
+      <c r="E59" s="41"/>
+      <c r="F59" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="20">
+        <v>300</v>
+      </c>
+      <c r="H59" s="11">
+        <v>72</v>
+      </c>
+      <c r="I59" s="11">
+        <v>67</v>
+      </c>
+      <c r="J59" s="11">
+        <v>41</v>
+      </c>
+      <c r="K59" s="45">
+        <v>24</v>
+      </c>
+      <c r="L59" s="45">
+        <v>22.333333333333002</v>
+      </c>
+      <c r="M59" s="45">
+        <v>13.666666666667</v>
+      </c>
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="20">
+        <v>300</v>
+      </c>
+      <c r="H60" s="11">
+        <v>54</v>
+      </c>
+      <c r="I60" s="11">
+        <v>51</v>
+      </c>
+      <c r="J60" s="11">
+        <v>28</v>
+      </c>
+      <c r="K60" s="45">
+        <v>18</v>
+      </c>
+      <c r="L60" s="45">
+        <v>17</v>
+      </c>
+      <c r="M60" s="45">
+        <v>9.3333333333333002</v>
+      </c>
+      <c r="N60" s="37"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="20">
+        <v>300</v>
+      </c>
+      <c r="H61" s="11">
+        <v>60</v>
+      </c>
+      <c r="I61" s="11">
+        <v>57</v>
+      </c>
+      <c r="J61" s="11">
+        <v>39</v>
+      </c>
+      <c r="K61" s="45">
+        <v>20</v>
+      </c>
+      <c r="L61" s="45">
+        <v>19</v>
+      </c>
+      <c r="M61" s="45">
+        <v>13</v>
+      </c>
+      <c r="N61" s="37"/>
+    </row>
+    <row r="62" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="43"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="17">
+        <f>AVERAGE(G57:G61)</f>
+        <v>300</v>
+      </c>
+      <c r="H62" s="17">
+        <f t="shared" ref="H62" si="16">AVERAGE(H57:H61)</f>
+        <v>62.6</v>
+      </c>
+      <c r="I62" s="17">
+        <f t="shared" ref="I62" si="17">AVERAGE(I57:I61)</f>
+        <v>59</v>
+      </c>
+      <c r="J62" s="17">
+        <f t="shared" ref="J62" si="18">AVERAGE(J57:J61)</f>
+        <v>37.4</v>
+      </c>
+      <c r="K62" s="46">
+        <f>100*H62/G62</f>
+        <v>20.866666666666667</v>
+      </c>
+      <c r="L62" s="46">
+        <f>100*I62/G62</f>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="M62" s="46">
+        <f>100*J62/G62</f>
+        <v>12.466666666666667</v>
+      </c>
+      <c r="N62" s="37"/>
+    </row>
+    <row r="63" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="44"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="38"/>
+    </row>
+    <row r="64" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F65" s="9"/>
+      <c r="G65" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="20">
+        <v>300</v>
+      </c>
+      <c r="H66" s="11">
+        <v>28</v>
+      </c>
+      <c r="I66" s="11">
+        <v>28</v>
+      </c>
+      <c r="J66" s="11">
+        <v>15</v>
+      </c>
+      <c r="K66" s="45">
+        <v>9.3333333333333002</v>
+      </c>
+      <c r="L66" s="45">
+        <v>9.3333333333333002</v>
+      </c>
+      <c r="M66" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="20">
+        <v>300</v>
+      </c>
+      <c r="H67" s="11">
+        <v>53</v>
+      </c>
+      <c r="I67" s="11">
+        <v>53</v>
+      </c>
+      <c r="J67" s="11">
+        <v>34</v>
+      </c>
+      <c r="K67" s="45">
+        <v>17.666666666666998</v>
+      </c>
+      <c r="L67" s="45">
+        <v>17.666666666666998</v>
+      </c>
+      <c r="M67" s="45">
+        <v>11.333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="20">
+        <v>300</v>
+      </c>
+      <c r="H68" s="11">
+        <v>45</v>
+      </c>
+      <c r="I68" s="11">
+        <v>40</v>
+      </c>
+      <c r="J68" s="11">
+        <v>18</v>
+      </c>
+      <c r="K68" s="45">
+        <v>15</v>
+      </c>
+      <c r="L68" s="45">
+        <v>13.333333333333</v>
+      </c>
+      <c r="M68" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="20">
+        <v>300</v>
+      </c>
+      <c r="H69" s="11">
+        <v>45</v>
+      </c>
+      <c r="I69" s="11">
+        <v>39</v>
+      </c>
+      <c r="J69" s="11">
+        <v>26</v>
+      </c>
+      <c r="K69" s="45">
+        <v>15</v>
+      </c>
+      <c r="L69" s="45">
+        <v>13</v>
+      </c>
+      <c r="M69" s="45">
+        <v>8.6666666666666998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="20">
+        <v>300</v>
+      </c>
+      <c r="H70" s="11">
+        <v>47</v>
+      </c>
+      <c r="I70" s="11">
+        <v>39</v>
+      </c>
+      <c r="J70" s="11">
+        <v>27</v>
+      </c>
+      <c r="K70" s="45">
+        <v>15.666666666667</v>
+      </c>
+      <c r="L70" s="45">
+        <v>13</v>
+      </c>
+      <c r="M70" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="17">
+        <f>AVERAGE(G66:G70)</f>
+        <v>300</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" ref="H71" si="19">AVERAGE(H66:H70)</f>
+        <v>43.6</v>
+      </c>
+      <c r="I71" s="17">
+        <f t="shared" ref="I71" si="20">AVERAGE(I66:I70)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J71" s="17">
+        <f t="shared" ref="J71" si="21">AVERAGE(J66:J70)</f>
+        <v>24</v>
+      </c>
+      <c r="K71" s="46">
+        <f>100*H71/G71</f>
+        <v>14.533333333333333</v>
+      </c>
+      <c r="L71" s="46">
+        <f>100*I71/G71</f>
+        <v>13.266666666666666</v>
+      </c>
+      <c r="M71" s="46">
+        <f>100*J71/G71</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>